--- a/biology/Histoire de la zoologie et de la botanique/Albert_John_Cook/Albert_John_Cook.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_John_Cook/Albert_John_Cook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert John Cook est un naturaliste américain, né le 30 août 1842 à Owasso, Michigan et mort le 29 septembre 1916 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie l’agriculture et la biologie au Michigan Agricultural College. Il y reçoit son Bachelor of Sciences en 1862 et son Master of Sciences en 1864. Il poursuit ses études à Harvard sous la direction de Louis Agassiz (1807-1873) et d'Hermann August Hagen (1817-1893). En 1867, Cook devient instructeur de mathématiques et commence à enseigner l’entomologie durant un semestre.
 Cet enseignant enthousiaste constitue une grande collection d’insectes avec l’aide de ses étudiants et de collecteurs dans divers endroits des États-Unis. Il s’intéresse aussi aux problèmes agricoles. Cook réalise ainsi une émulsion de savon et de kérosène en 1877, invention  dont Charles Valentine Riley (1843-1895) revendiquera la paternité. Plus tard, Leland Ossian Howard (1857-1950) déterminera que le véritable découvreur de cette technique est un certain Henry Bird de Newark dans le New Jersey.
